--- a/natmiOut/OldD4/LR-pairs_lrc2p/Comp-Cd47.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Comp-Cd47.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Cd47</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.333267317468375</v>
+        <v>0.5265343333333333</v>
       </c>
       <c r="H2">
-        <v>0.333267317468375</v>
+        <v>1.579603</v>
       </c>
       <c r="I2">
-        <v>0.008192322898400568</v>
+        <v>0.01258949710924503</v>
       </c>
       <c r="J2">
-        <v>0.008192322898400568</v>
+        <v>0.01274042434033606</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.8869511066295</v>
+        <v>44.35530666666667</v>
       </c>
       <c r="N2">
-        <v>40.8869511066295</v>
+        <v>133.06592</v>
       </c>
       <c r="O2">
-        <v>0.1382036305606122</v>
+        <v>0.1357695438667374</v>
       </c>
       <c r="P2">
-        <v>0.1382036305606122</v>
+        <v>0.1403037013810099</v>
       </c>
       <c r="Q2">
-        <v>13.62628451476702</v>
+        <v>23.35459182552889</v>
       </c>
       <c r="R2">
-        <v>13.62628451476702</v>
+        <v>210.19132642976</v>
       </c>
       <c r="S2">
-        <v>0.001132208767283796</v>
+        <v>0.001709270280033807</v>
       </c>
       <c r="T2">
-        <v>0.001132208767283796</v>
+        <v>0.001787528692113862</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.333267317468375</v>
+        <v>0.5265343333333333</v>
       </c>
       <c r="H3">
-        <v>0.333267317468375</v>
+        <v>1.579603</v>
       </c>
       <c r="I3">
-        <v>0.008192322898400568</v>
+        <v>0.01258949710924503</v>
       </c>
       <c r="J3">
-        <v>0.008192322898400568</v>
+        <v>0.01274042434033606</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>78.501645186982</v>
+        <v>84.01327500000001</v>
       </c>
       <c r="N3">
-        <v>78.501645186982</v>
+        <v>252.039825</v>
       </c>
       <c r="O3">
-        <v>0.2653465733242898</v>
+        <v>0.2571607521783362</v>
       </c>
       <c r="P3">
-        <v>0.2653465733242898</v>
+        <v>0.2657488885427764</v>
       </c>
       <c r="Q3">
-        <v>26.16203270831966</v>
+        <v>44.235873743275</v>
       </c>
       <c r="R3">
-        <v>26.16203270831966</v>
+        <v>398.122863689475</v>
       </c>
       <c r="S3">
-        <v>0.002173804808656705</v>
+        <v>0.003237524546160441</v>
       </c>
       <c r="T3">
-        <v>0.002173804808656705</v>
+        <v>0.003385753608007644</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.333267317468375</v>
+        <v>0.5265343333333333</v>
       </c>
       <c r="H4">
-        <v>0.333267317468375</v>
+        <v>1.579603</v>
       </c>
       <c r="I4">
-        <v>0.008192322898400568</v>
+        <v>0.01258949710924503</v>
       </c>
       <c r="J4">
-        <v>0.008192322898400568</v>
+        <v>0.01274042434033606</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>75.00237795711929</v>
+        <v>95.31862966666665</v>
       </c>
       <c r="N4">
-        <v>75.00237795711929</v>
+        <v>285.955889</v>
       </c>
       <c r="O4">
-        <v>0.2535185591931411</v>
+        <v>0.291765920346377</v>
       </c>
       <c r="P4">
-        <v>0.2535185591931411</v>
+        <v>0.3015097303531755</v>
       </c>
       <c r="Q4">
-        <v>24.99584130551833</v>
+        <v>50.18853112578521</v>
       </c>
       <c r="R4">
-        <v>24.99584130551833</v>
+        <v>451.696780132067</v>
       </c>
       <c r="S4">
-        <v>0.002076905897647489</v>
+        <v>0.00367318621077693</v>
       </c>
       <c r="T4">
-        <v>0.002076905897647489</v>
+        <v>0.00384136190743976</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.333267317468375</v>
+        <v>0.5265343333333333</v>
       </c>
       <c r="H5">
-        <v>0.333267317468375</v>
+        <v>1.579603</v>
       </c>
       <c r="I5">
-        <v>0.008192322898400568</v>
+        <v>0.01258949710924503</v>
       </c>
       <c r="J5">
-        <v>0.008192322898400568</v>
+        <v>0.01274042434033606</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>69.990370922106</v>
+        <v>71.335144</v>
       </c>
       <c r="N5">
-        <v>69.990370922106</v>
+        <v>214.005432</v>
       </c>
       <c r="O5">
-        <v>0.2365772723060918</v>
+        <v>0.2183535790955647</v>
       </c>
       <c r="P5">
-        <v>0.2365772723060918</v>
+        <v>0.2256457117287584</v>
       </c>
       <c r="Q5">
-        <v>23.32550316582682</v>
+        <v>37.56040248927733</v>
       </c>
       <c r="R5">
-        <v>23.32550316582682</v>
+        <v>338.043622403496</v>
       </c>
       <c r="S5">
-        <v>0.001938117405154342</v>
+        <v>0.002748961752816918</v>
       </c>
       <c r="T5">
-        <v>0.001938117405154342</v>
+        <v>0.002874822118001528</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.333267317468375</v>
+        <v>0.5265343333333333</v>
       </c>
       <c r="H6">
-        <v>0.333267317468375</v>
+        <v>1.579603</v>
       </c>
       <c r="I6">
-        <v>0.008192322898400568</v>
+        <v>0.01258949710924503</v>
       </c>
       <c r="J6">
-        <v>0.008192322898400568</v>
+        <v>0.01274042434033606</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.4643640952541</v>
+        <v>31.673201</v>
       </c>
       <c r="N6">
-        <v>31.4643640952541</v>
+        <v>63.346402</v>
       </c>
       <c r="O6">
-        <v>0.1063539646158653</v>
+        <v>0.09695020451298475</v>
       </c>
       <c r="P6">
-        <v>0.1063539646158653</v>
+        <v>0.0667919679942799</v>
       </c>
       <c r="Q6">
-        <v>10.48604421787359</v>
+        <v>16.67702777306767</v>
       </c>
       <c r="R6">
-        <v>10.48604421787359</v>
+        <v>100.062166638406</v>
       </c>
       <c r="S6">
-        <v>0.0008712860196582369</v>
+        <v>0.001220554319456936</v>
       </c>
       <c r="T6">
-        <v>0.0008712860196582369</v>
+        <v>0.000850958014773271</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.1263555377023</v>
+        <v>39.58674566666667</v>
       </c>
       <c r="H7">
-        <v>39.1263555377023</v>
+        <v>118.760237</v>
       </c>
       <c r="I7">
-        <v>0.9617976969280742</v>
+        <v>0.9465236900694383</v>
       </c>
       <c r="J7">
-        <v>0.9617976969280742</v>
+        <v>0.9578709423436643</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.8869511066295</v>
+        <v>44.35530666666667</v>
       </c>
       <c r="N7">
-        <v>40.8869511066295</v>
+        <v>133.06592</v>
       </c>
       <c r="O7">
-        <v>0.1382036305606122</v>
+        <v>0.1357695438667374</v>
       </c>
       <c r="P7">
-        <v>0.1382036305606122</v>
+        <v>0.1403037013810099</v>
       </c>
       <c r="Q7">
-        <v>1599.757385850637</v>
+        <v>1755.882243980338</v>
       </c>
       <c r="R7">
-        <v>1599.757385850637</v>
+        <v>15802.94019582304</v>
       </c>
       <c r="S7">
-        <v>0.1329239335802952</v>
+        <v>0.1285090896597887</v>
       </c>
       <c r="T7">
-        <v>0.1329239335802952</v>
+        <v>0.1343928386561321</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>39.1263555377023</v>
+        <v>39.58674566666667</v>
       </c>
       <c r="H8">
-        <v>39.1263555377023</v>
+        <v>118.760237</v>
       </c>
       <c r="I8">
-        <v>0.9617976969280742</v>
+        <v>0.9465236900694383</v>
       </c>
       <c r="J8">
-        <v>0.9617976969280742</v>
+        <v>0.9578709423436643</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>78.501645186982</v>
+        <v>84.01327500000001</v>
       </c>
       <c r="N8">
-        <v>78.501645186982</v>
+        <v>252.039825</v>
       </c>
       <c r="O8">
-        <v>0.2653465733242898</v>
+        <v>0.2571607521783362</v>
       </c>
       <c r="P8">
-        <v>0.2653465733242898</v>
+        <v>0.2657488885427764</v>
       </c>
       <c r="Q8">
-        <v>3071.483279880415</v>
+        <v>3325.812150048725</v>
       </c>
       <c r="R8">
-        <v>3071.483279880415</v>
+        <v>29932.30935043852</v>
       </c>
       <c r="S8">
-        <v>0.2552097231110583</v>
+        <v>0.2434087440928711</v>
       </c>
       <c r="T8">
-        <v>0.2552097231110583</v>
+        <v>0.2545531382952507</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>39.1263555377023</v>
+        <v>39.58674566666667</v>
       </c>
       <c r="H9">
-        <v>39.1263555377023</v>
+        <v>118.760237</v>
       </c>
       <c r="I9">
-        <v>0.9617976969280742</v>
+        <v>0.9465236900694383</v>
       </c>
       <c r="J9">
-        <v>0.9617976969280742</v>
+        <v>0.9578709423436643</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>75.00237795711929</v>
+        <v>95.31862966666665</v>
       </c>
       <c r="N9">
-        <v>75.00237795711929</v>
+        <v>285.955889</v>
       </c>
       <c r="O9">
-        <v>0.2535185591931411</v>
+        <v>0.291765920346377</v>
       </c>
       <c r="P9">
-        <v>0.2535185591931411</v>
+        <v>0.3015097303531755</v>
       </c>
       <c r="Q9">
-        <v>2934.569706123375</v>
+        <v>3773.354349909521</v>
       </c>
       <c r="R9">
-        <v>2934.569706123375</v>
+        <v>33960.18914918569</v>
       </c>
       <c r="S9">
-        <v>0.2438335663604868</v>
+        <v>0.2761633555627586</v>
       </c>
       <c r="T9">
-        <v>0.2438335663604868</v>
+        <v>0.2888074095391803</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>39.1263555377023</v>
+        <v>39.58674566666667</v>
       </c>
       <c r="H10">
-        <v>39.1263555377023</v>
+        <v>118.760237</v>
       </c>
       <c r="I10">
-        <v>0.9617976969280742</v>
+        <v>0.9465236900694383</v>
       </c>
       <c r="J10">
-        <v>0.9617976969280742</v>
+        <v>0.9578709423436643</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>69.990370922106</v>
+        <v>71.335144</v>
       </c>
       <c r="N10">
-        <v>69.990370922106</v>
+        <v>214.005432</v>
       </c>
       <c r="O10">
-        <v>0.2365772723060918</v>
+        <v>0.2183535790955647</v>
       </c>
       <c r="P10">
-        <v>0.2365772723060918</v>
+        <v>0.2256457117287584</v>
       </c>
       <c r="Q10">
-        <v>2738.46813691398</v>
+        <v>2823.926202623043</v>
       </c>
       <c r="R10">
-        <v>2738.46813691398</v>
+        <v>25415.33582360738</v>
       </c>
       <c r="S10">
-        <v>0.227539475649525</v>
+        <v>0.2066768354254028</v>
       </c>
       <c r="T10">
-        <v>0.227539475649525</v>
+        <v>0.2161394705294326</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>39.1263555377023</v>
+        <v>39.58674566666667</v>
       </c>
       <c r="H11">
-        <v>39.1263555377023</v>
+        <v>118.760237</v>
       </c>
       <c r="I11">
-        <v>0.9617976969280742</v>
+        <v>0.9465236900694383</v>
       </c>
       <c r="J11">
-        <v>0.9617976969280742</v>
+        <v>0.9578709423436643</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.4643640952541</v>
+        <v>31.673201</v>
       </c>
       <c r="N11">
-        <v>31.4643640952541</v>
+        <v>63.346402</v>
       </c>
       <c r="O11">
-        <v>0.1063539646158653</v>
+        <v>0.09695020451298475</v>
       </c>
       <c r="P11">
-        <v>0.1063539646158653</v>
+        <v>0.0667919679942799</v>
       </c>
       <c r="Q11">
-        <v>1231.085896358627</v>
+        <v>1253.838952436212</v>
       </c>
       <c r="R11">
-        <v>1231.085896358627</v>
+        <v>7523.033714617273</v>
       </c>
       <c r="S11">
-        <v>0.1022909982267091</v>
+        <v>0.09176566532861703</v>
       </c>
       <c r="T11">
-        <v>0.1022909982267091</v>
+        <v>0.06397808532366876</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.22081926136755</v>
+        <v>0.09530433333333332</v>
       </c>
       <c r="H12">
-        <v>1.22081926136755</v>
+        <v>0.285913</v>
       </c>
       <c r="I12">
-        <v>0.03000998017352515</v>
+        <v>0.002278737687251528</v>
       </c>
       <c r="J12">
-        <v>0.03000998017352515</v>
+        <v>0.00230605598015356</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>40.8869511066295</v>
+        <v>44.35530666666667</v>
       </c>
       <c r="N12">
-        <v>40.8869511066295</v>
+        <v>133.06592</v>
       </c>
       <c r="O12">
-        <v>0.1382036305606122</v>
+        <v>0.1357695438667374</v>
       </c>
       <c r="P12">
-        <v>0.1382036305606122</v>
+        <v>0.1403037013810099</v>
       </c>
       <c r="Q12">
-        <v>49.91557744956656</v>
+        <v>4.227252931662222</v>
       </c>
       <c r="R12">
-        <v>49.91557744956656</v>
+        <v>38.04527638496</v>
       </c>
       <c r="S12">
-        <v>0.004147488213033166</v>
+        <v>0.000309383176390084</v>
       </c>
       <c r="T12">
-        <v>0.004147488213033166</v>
+        <v>0.0003235481896073573</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.22081926136755</v>
+        <v>0.09530433333333332</v>
       </c>
       <c r="H13">
-        <v>1.22081926136755</v>
+        <v>0.285913</v>
       </c>
       <c r="I13">
-        <v>0.03000998017352515</v>
+        <v>0.002278737687251528</v>
       </c>
       <c r="J13">
-        <v>0.03000998017352515</v>
+        <v>0.00230605598015356</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>78.501645186982</v>
+        <v>84.01327500000001</v>
       </c>
       <c r="N13">
-        <v>78.501645186982</v>
+        <v>252.039825</v>
       </c>
       <c r="O13">
-        <v>0.2653465733242898</v>
+        <v>0.2571607521783362</v>
       </c>
       <c r="P13">
-        <v>0.2653465733242898</v>
+        <v>0.2657488885427764</v>
       </c>
       <c r="Q13">
-        <v>95.83632049330885</v>
+        <v>8.006829165025</v>
       </c>
       <c r="R13">
-        <v>95.83632049330885</v>
+        <v>72.06146248522499</v>
       </c>
       <c r="S13">
-        <v>0.007963045404574777</v>
+        <v>0.000586001897670725</v>
       </c>
       <c r="T13">
-        <v>0.007963045404574777</v>
+        <v>0.0006128318136432314</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.22081926136755</v>
+        <v>0.09530433333333332</v>
       </c>
       <c r="H14">
-        <v>1.22081926136755</v>
+        <v>0.285913</v>
       </c>
       <c r="I14">
-        <v>0.03000998017352515</v>
+        <v>0.002278737687251528</v>
       </c>
       <c r="J14">
-        <v>0.03000998017352515</v>
+        <v>0.00230605598015356</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>75.00237795711929</v>
+        <v>95.31862966666665</v>
       </c>
       <c r="N14">
-        <v>75.00237795711929</v>
+        <v>285.955889</v>
       </c>
       <c r="O14">
-        <v>0.2535185591931411</v>
+        <v>0.291765920346377</v>
       </c>
       <c r="P14">
-        <v>0.2535185591931411</v>
+        <v>0.3015097303531755</v>
       </c>
       <c r="Q14">
-        <v>91.56434765842019</v>
+        <v>9.084278454628553</v>
       </c>
       <c r="R14">
-        <v>91.56434765842019</v>
+        <v>81.75850609165698</v>
       </c>
       <c r="S14">
-        <v>0.007608086935006827</v>
+        <v>0.0006648579985489165</v>
       </c>
       <c r="T14">
-        <v>0.007608086935006827</v>
+        <v>0.0006952983167554277</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.22081926136755</v>
+        <v>0.09530433333333332</v>
       </c>
       <c r="H15">
-        <v>1.22081926136755</v>
+        <v>0.285913</v>
       </c>
       <c r="I15">
-        <v>0.03000998017352515</v>
+        <v>0.002278737687251528</v>
       </c>
       <c r="J15">
-        <v>0.03000998017352515</v>
+        <v>0.00230605598015356</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>69.990370922106</v>
+        <v>71.335144</v>
       </c>
       <c r="N15">
-        <v>69.990370922106</v>
+        <v>214.005432</v>
       </c>
       <c r="O15">
-        <v>0.2365772723060918</v>
+        <v>0.2183535790955647</v>
       </c>
       <c r="P15">
-        <v>0.2365772723060918</v>
+        <v>0.2256457117287584</v>
       </c>
       <c r="Q15">
-        <v>85.44559293196629</v>
+        <v>6.798548342157333</v>
       </c>
       <c r="R15">
-        <v>85.44559293196629</v>
+        <v>61.18693507941599</v>
       </c>
       <c r="S15">
-        <v>0.007099679251412476</v>
+        <v>0.0004975705298313205</v>
       </c>
       <c r="T15">
-        <v>0.007099679251412476</v>
+        <v>0.0005203516429281097</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.09530433333333332</v>
+      </c>
+      <c r="H16">
+        <v>0.285913</v>
+      </c>
+      <c r="I16">
+        <v>0.002278737687251528</v>
+      </c>
+      <c r="J16">
+        <v>0.00230605598015356</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>31.673201</v>
+      </c>
+      <c r="N16">
+        <v>63.346402</v>
+      </c>
+      <c r="O16">
+        <v>0.09695020451298475</v>
+      </c>
+      <c r="P16">
+        <v>0.0667919679942799</v>
+      </c>
+      <c r="Q16">
+        <v>3.018593305837666</v>
+      </c>
+      <c r="R16">
+        <v>18.111559835026</v>
+      </c>
+      <c r="S16">
+        <v>0.0002209240848104815</v>
+      </c>
+      <c r="T16">
+        <v>0.0001540260172194344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1283596666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.3850789999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.003069094549282932</v>
+      </c>
+      <c r="J17">
+        <v>0.003105887912692157</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>44.35530666666667</v>
+      </c>
+      <c r="N17">
+        <v>133.06592</v>
+      </c>
+      <c r="O17">
+        <v>0.1357695438667374</v>
+      </c>
+      <c r="P17">
+        <v>0.1403037013810099</v>
+      </c>
+      <c r="Q17">
+        <v>5.693432378631111</v>
+      </c>
+      <c r="R17">
+        <v>51.24089140768</v>
+      </c>
+      <c r="S17">
+        <v>0.0004166895670400336</v>
+      </c>
+      <c r="T17">
+        <v>0.0004357675702252487</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.1283596666666666</v>
+      </c>
+      <c r="H18">
+        <v>0.3850789999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.003069094549282932</v>
+      </c>
+      <c r="J18">
+        <v>0.003105887912692157</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>84.01327500000001</v>
+      </c>
+      <c r="N18">
+        <v>252.039825</v>
+      </c>
+      <c r="O18">
+        <v>0.2571607521783362</v>
+      </c>
+      <c r="P18">
+        <v>0.2657488885427764</v>
+      </c>
+      <c r="Q18">
+        <v>10.783915974575</v>
+      </c>
+      <c r="R18">
+        <v>97.05524377117499</v>
+      </c>
+      <c r="S18">
+        <v>0.0007892506628000305</v>
+      </c>
+      <c r="T18">
+        <v>0.0008253862607363845</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.1283596666666666</v>
+      </c>
+      <c r="H19">
+        <v>0.3850789999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.003069094549282932</v>
+      </c>
+      <c r="J19">
+        <v>0.003105887912692157</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>95.31862966666665</v>
+      </c>
+      <c r="N19">
+        <v>285.955889</v>
+      </c>
+      <c r="O19">
+        <v>0.291765920346377</v>
+      </c>
+      <c r="P19">
+        <v>0.3015097303531755</v>
+      </c>
+      <c r="Q19">
+        <v>12.23506753113677</v>
+      </c>
+      <c r="R19">
+        <v>110.115607780231</v>
+      </c>
+      <c r="S19">
+        <v>0.0008954571958015838</v>
+      </c>
+      <c r="T19">
+        <v>0.0009364554270629993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.1283596666666666</v>
+      </c>
+      <c r="H20">
+        <v>0.3850789999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.003069094549282932</v>
+      </c>
+      <c r="J20">
+        <v>0.003105887912692157</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>71.335144</v>
+      </c>
+      <c r="N20">
+        <v>214.005432</v>
+      </c>
+      <c r="O20">
+        <v>0.2183535790955647</v>
+      </c>
+      <c r="P20">
+        <v>0.2256457117287584</v>
+      </c>
+      <c r="Q20">
+        <v>9.156555305458665</v>
+      </c>
+      <c r="R20">
+        <v>82.40899774912798</v>
+      </c>
+      <c r="S20">
+        <v>0.0006701477794186171</v>
+      </c>
+      <c r="T20">
+        <v>0.0007008302886091696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1283596666666666</v>
+      </c>
+      <c r="H21">
+        <v>0.3850789999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.003069094549282932</v>
+      </c>
+      <c r="J21">
+        <v>0.003105887912692157</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>31.673201</v>
+      </c>
+      <c r="N21">
+        <v>63.346402</v>
+      </c>
+      <c r="O21">
+        <v>0.09695020451298475</v>
+      </c>
+      <c r="P21">
+        <v>0.0667919679942799</v>
+      </c>
+      <c r="Q21">
+        <v>4.065561522626333</v>
+      </c>
+      <c r="R21">
+        <v>24.393369135758</v>
+      </c>
+      <c r="S21">
+        <v>0.000297549344222667</v>
+      </c>
+      <c r="T21">
+        <v>0.0002074483660583554</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.4863575</v>
+      </c>
+      <c r="H22">
+        <v>2.972715</v>
+      </c>
+      <c r="I22">
+        <v>0.03553898058478239</v>
+      </c>
+      <c r="J22">
+        <v>0.02397668942315387</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>44.35530666666667</v>
+      </c>
+      <c r="N22">
+        <v>133.06592</v>
+      </c>
+      <c r="O22">
+        <v>0.1357695438667374</v>
+      </c>
+      <c r="P22">
+        <v>0.1403037013810099</v>
+      </c>
+      <c r="Q22">
+        <v>65.9278427288</v>
+      </c>
+      <c r="R22">
+        <v>395.5670563728</v>
+      </c>
+      <c r="S22">
+        <v>0.004825111183484741</v>
+      </c>
+      <c r="T22">
+        <v>0.0033640182729314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.4863575</v>
+      </c>
+      <c r="H23">
+        <v>2.972715</v>
+      </c>
+      <c r="I23">
+        <v>0.03553898058478239</v>
+      </c>
+      <c r="J23">
+        <v>0.02397668942315387</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>84.01327500000001</v>
+      </c>
+      <c r="N23">
+        <v>252.039825</v>
+      </c>
+      <c r="O23">
+        <v>0.2571607521783362</v>
+      </c>
+      <c r="P23">
+        <v>0.2657488885427764</v>
+      </c>
+      <c r="Q23">
+        <v>124.8737613958125</v>
+      </c>
+      <c r="R23">
+        <v>749.2425683748751</v>
+      </c>
+      <c r="S23">
+        <v>0.009139230978833925</v>
+      </c>
+      <c r="T23">
+        <v>0.006371778565138482</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.22081926136755</v>
-      </c>
-      <c r="H16">
-        <v>1.22081926136755</v>
-      </c>
-      <c r="I16">
-        <v>0.03000998017352515</v>
-      </c>
-      <c r="J16">
-        <v>0.03000998017352515</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>31.4643640952541</v>
-      </c>
-      <c r="N16">
-        <v>31.4643640952541</v>
-      </c>
-      <c r="O16">
-        <v>0.1063539646158653</v>
-      </c>
-      <c r="P16">
-        <v>0.1063539646158653</v>
-      </c>
-      <c r="Q16">
-        <v>38.41230173416777</v>
-      </c>
-      <c r="R16">
-        <v>38.41230173416777</v>
-      </c>
-      <c r="S16">
-        <v>0.003191680369497913</v>
-      </c>
-      <c r="T16">
-        <v>0.003191680369497913</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.4863575</v>
+      </c>
+      <c r="H24">
+        <v>2.972715</v>
+      </c>
+      <c r="I24">
+        <v>0.03553898058478239</v>
+      </c>
+      <c r="J24">
+        <v>0.02397668942315387</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>95.31862966666665</v>
+      </c>
+      <c r="N24">
+        <v>285.955889</v>
+      </c>
+      <c r="O24">
+        <v>0.291765920346377</v>
+      </c>
+      <c r="P24">
+        <v>0.3015097303531755</v>
+      </c>
+      <c r="Q24">
+        <v>141.6775600947725</v>
+      </c>
+      <c r="R24">
+        <v>850.0653605686349</v>
+      </c>
+      <c r="S24">
+        <v>0.01036906337849106</v>
+      </c>
+      <c r="T24">
+        <v>0.007229205162736956</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.4863575</v>
+      </c>
+      <c r="H25">
+        <v>2.972715</v>
+      </c>
+      <c r="I25">
+        <v>0.03553898058478239</v>
+      </c>
+      <c r="J25">
+        <v>0.02397668942315387</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>71.335144</v>
+      </c>
+      <c r="N25">
+        <v>214.005432</v>
+      </c>
+      <c r="O25">
+        <v>0.2183535790955647</v>
+      </c>
+      <c r="P25">
+        <v>0.2256457117287584</v>
+      </c>
+      <c r="Q25">
+        <v>106.02952629798</v>
+      </c>
+      <c r="R25">
+        <v>636.17715778788</v>
+      </c>
+      <c r="S25">
+        <v>0.007760063608095019</v>
+      </c>
+      <c r="T25">
+        <v>0.005410237149786948</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.4863575</v>
+      </c>
+      <c r="H26">
+        <v>2.972715</v>
+      </c>
+      <c r="I26">
+        <v>0.03553898058478239</v>
+      </c>
+      <c r="J26">
+        <v>0.02397668942315387</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>31.673201</v>
+      </c>
+      <c r="N26">
+        <v>63.346402</v>
+      </c>
+      <c r="O26">
+        <v>0.09695020451298475</v>
+      </c>
+      <c r="P26">
+        <v>0.0667919679942799</v>
+      </c>
+      <c r="Q26">
+        <v>47.0776998553575</v>
+      </c>
+      <c r="R26">
+        <v>188.31079942143</v>
+      </c>
+      <c r="S26">
+        <v>0.003445511435877647</v>
+      </c>
+      <c r="T26">
+        <v>0.001601450272560082</v>
       </c>
     </row>
   </sheetData>
